--- a/utils/ALL_4.xlsx
+++ b/utils/ALL_4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12615"/>
+    <workbookView windowWidth="20445" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
-  <si>
-    <t>不不不</t>
-  </si>
-  <si>
-    <t>暗色调</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>日期</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+  <si>
+    <t>membership</t>
+  </si>
+  <si>
+    <t>info</t>
   </si>
   <si>
     <t>时间</t>
@@ -46,9 +40,6 @@
   </si>
   <si>
     <t>异常</t>
-  </si>
-  <si>
-    <t>2019-08-13</t>
   </si>
   <si>
     <t>13:39:02</t>
@@ -74,6 +65,9 @@
   </si>
   <si>
     <t>4W6</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
   </si>
   <si>
     <t>13:13:44</t>
@@ -177,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,43 +199,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="24"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,9 +228,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +289,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -304,39 +321,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,13 +359,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +473,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,19 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,122 +543,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -546,16 +554,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,30 +573,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +612,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -642,16 +650,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,145 +683,158 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1148,7 +1184,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1160,190 +1196,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="31.5" spans="1:7">
+      <c r="A3" s="6">
+        <v>3333</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4">
         <v>270000</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="6">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>460000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
+      <c r="A6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>330000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>350000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
       <c r="F8">
         <v>594000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>690000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1351,19 +1389,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
       </c>
       <c r="F11">
         <v>990000</v>
@@ -1371,33 +1409,33 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>402440</v>
@@ -1405,19 +1443,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>320000</v>
@@ -1425,19 +1463,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>730000</v>
@@ -1446,7 +1484,7 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
